--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb2-Ephb4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb2-Ephb4.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.95628266666667</v>
+        <v>45.71598933333333</v>
       </c>
       <c r="H2">
-        <v>86.868848</v>
+        <v>137.147968</v>
       </c>
       <c r="I2">
-        <v>0.5491054194301004</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="J2">
-        <v>0.5491054194301005</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>23.34377233333333</v>
+        <v>47.991936</v>
       </c>
       <c r="N2">
-        <v>70.031317</v>
+        <v>143.975808</v>
       </c>
       <c r="O2">
-        <v>0.6243713731385437</v>
+        <v>0.7605119179168339</v>
       </c>
       <c r="P2">
-        <v>0.6243713731385437</v>
+        <v>0.7605119179168338</v>
       </c>
       <c r="Q2">
-        <v>675.9488701903128</v>
+        <v>2193.998834262016</v>
       </c>
       <c r="R2">
-        <v>6083.539831712817</v>
+        <v>19745.98950835814</v>
       </c>
       <c r="S2">
-        <v>0.3428457047273878</v>
+        <v>0.4980594784344373</v>
       </c>
       <c r="T2">
-        <v>0.3428457047273878</v>
+        <v>0.4980594784344372</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.95628266666667</v>
+        <v>45.71598933333333</v>
       </c>
       <c r="H3">
-        <v>86.868848</v>
+        <v>137.147968</v>
       </c>
       <c r="I3">
-        <v>0.5491054194301004</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="J3">
-        <v>0.5491054194301005</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>24.944012</v>
       </c>
       <c r="O3">
-        <v>0.2223908915496236</v>
+        <v>0.1317597634642934</v>
       </c>
       <c r="P3">
-        <v>0.2223908915496236</v>
+        <v>0.1317597634642934</v>
       </c>
       <c r="Q3">
-        <v>240.7619541042418</v>
+        <v>380.1133955075128</v>
       </c>
       <c r="R3">
-        <v>2166.857586938176</v>
+        <v>3421.020559567616</v>
       </c>
       <c r="S3">
-        <v>0.12211604378179</v>
+        <v>0.08628950779552037</v>
       </c>
       <c r="T3">
-        <v>0.1221160437817901</v>
+        <v>0.08628950779552037</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.95628266666667</v>
+        <v>45.71598933333333</v>
       </c>
       <c r="H4">
-        <v>86.868848</v>
+        <v>137.147968</v>
       </c>
       <c r="I4">
-        <v>0.5491054194301004</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="J4">
-        <v>0.5491054194301005</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.700542666666666</v>
+        <v>6.744108333333334</v>
       </c>
       <c r="N4">
-        <v>17.101628</v>
+        <v>20.232325</v>
       </c>
       <c r="O4">
-        <v>0.1524713144729888</v>
+        <v>0.1068715953284784</v>
       </c>
       <c r="P4">
-        <v>0.1524713144729888</v>
+        <v>0.1068715953284784</v>
       </c>
       <c r="Q4">
-        <v>165.0665248093938</v>
+        <v>308.3135846295111</v>
       </c>
       <c r="R4">
-        <v>1485.598723284544</v>
+        <v>2774.8222616656</v>
       </c>
       <c r="S4">
-        <v>0.08372282508474925</v>
+        <v>0.06999023917279233</v>
       </c>
       <c r="T4">
-        <v>0.08372282508474926</v>
+        <v>0.06999023917279232</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.95628266666667</v>
+        <v>45.71598933333333</v>
       </c>
       <c r="H5">
-        <v>86.868848</v>
+        <v>137.147968</v>
       </c>
       <c r="I5">
-        <v>0.5491054194301004</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="J5">
-        <v>0.5491054194301005</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02865466666666667</v>
+        <v>0.05406333333333333</v>
       </c>
       <c r="N5">
-        <v>0.085964</v>
+        <v>0.16219</v>
       </c>
       <c r="O5">
-        <v>0.0007664208388438814</v>
+        <v>0.0008567232903942534</v>
       </c>
       <c r="P5">
-        <v>0.0007664208388438814</v>
+        <v>0.0008567232903942534</v>
       </c>
       <c r="Q5">
-        <v>0.829732627719111</v>
+        <v>2.471558769991111</v>
       </c>
       <c r="R5">
-        <v>7.467593649472</v>
+        <v>22.24402892992</v>
       </c>
       <c r="S5">
-        <v>0.0004208458361733388</v>
+        <v>0.0005610683345307662</v>
       </c>
       <c r="T5">
-        <v>0.0004208458361733389</v>
+        <v>0.0005610683345307662</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>38.074479</v>
       </c>
       <c r="I6">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="J6">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>23.34377233333333</v>
+        <v>47.991936</v>
       </c>
       <c r="N6">
-        <v>70.031317</v>
+        <v>143.975808</v>
       </c>
       <c r="O6">
-        <v>0.6243713731385437</v>
+        <v>0.7605119179168339</v>
       </c>
       <c r="P6">
-        <v>0.6243713731385437</v>
+        <v>0.7605119179168338</v>
       </c>
       <c r="Q6">
-        <v>296.2673231620936</v>
+        <v>609.089319800448</v>
       </c>
       <c r="R6">
-        <v>2666.405908458843</v>
+        <v>5481.803878204031</v>
       </c>
       <c r="S6">
-        <v>0.1502687313740264</v>
+        <v>0.1382693118165844</v>
       </c>
       <c r="T6">
-        <v>0.1502687313740264</v>
+        <v>0.1382693118165843</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>38.074479</v>
       </c>
       <c r="I7">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="J7">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>24.944012</v>
       </c>
       <c r="O7">
-        <v>0.2223908915496236</v>
+        <v>0.1317597634642934</v>
       </c>
       <c r="P7">
-        <v>0.2223908915496236</v>
+        <v>0.1317597634642934</v>
       </c>
       <c r="Q7">
         <v>105.5255845633053</v>
@@ -883,10 +883,10 @@
         <v>949.7302610697479</v>
       </c>
       <c r="S7">
-        <v>0.05352326929134418</v>
+        <v>0.02395535347983338</v>
       </c>
       <c r="T7">
-        <v>0.05352326929134418</v>
+        <v>0.02395535347983338</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>38.074479</v>
       </c>
       <c r="I8">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="J8">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.700542666666666</v>
+        <v>6.744108333333334</v>
       </c>
       <c r="N8">
-        <v>17.101628</v>
+        <v>20.232325</v>
       </c>
       <c r="O8">
-        <v>0.1524713144729888</v>
+        <v>0.1068715953284784</v>
       </c>
       <c r="P8">
-        <v>0.1524713144729888</v>
+        <v>0.1068715953284784</v>
       </c>
       <c r="Q8">
-        <v>72.34839735020132</v>
+        <v>85.59280370374167</v>
       </c>
       <c r="R8">
-        <v>651.1355761518118</v>
+        <v>770.3352333336751</v>
       </c>
       <c r="S8">
-        <v>0.0366955821206465</v>
+        <v>0.01943041468605251</v>
       </c>
       <c r="T8">
-        <v>0.0366955821206465</v>
+        <v>0.0194304146860525</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>38.074479</v>
       </c>
       <c r="I9">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="J9">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.02865466666666667</v>
+        <v>0.05406333333333333</v>
       </c>
       <c r="N9">
-        <v>0.085964</v>
+        <v>0.16219</v>
       </c>
       <c r="O9">
-        <v>0.0007664208388438814</v>
+        <v>0.0008567232903942534</v>
       </c>
       <c r="P9">
-        <v>0.0007664208388438814</v>
+        <v>0.0008567232903942534</v>
       </c>
       <c r="Q9">
-        <v>0.3636705014173333</v>
+        <v>0.6861444165566666</v>
       </c>
       <c r="R9">
-        <v>3.273034512756</v>
+        <v>6.17529974901</v>
       </c>
       <c r="S9">
-        <v>0.0001844560659031559</v>
+        <v>0.0001557615824148167</v>
       </c>
       <c r="T9">
-        <v>0.0001844560659031559</v>
+        <v>0.0001557615824148166</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.59691233333333</v>
+        <v>11.24784666666667</v>
       </c>
       <c r="H10">
-        <v>31.790737</v>
+        <v>33.74354</v>
       </c>
       <c r="I10">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="J10">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>23.34377233333333</v>
+        <v>47.991936</v>
       </c>
       <c r="N10">
-        <v>70.031317</v>
+        <v>143.975808</v>
       </c>
       <c r="O10">
-        <v>0.6243713731385437</v>
+        <v>0.7605119179168339</v>
       </c>
       <c r="P10">
-        <v>0.6243713731385437</v>
+        <v>0.7605119179168338</v>
       </c>
       <c r="Q10">
-        <v>247.3719089456254</v>
+        <v>539.80593736448</v>
       </c>
       <c r="R10">
-        <v>2226.347180510629</v>
+        <v>4858.25343628032</v>
       </c>
       <c r="S10">
-        <v>0.1254686562732827</v>
+        <v>0.12254129738861</v>
       </c>
       <c r="T10">
-        <v>0.1254686562732827</v>
+        <v>0.12254129738861</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.59691233333333</v>
+        <v>11.24784666666667</v>
       </c>
       <c r="H11">
-        <v>31.790737</v>
+        <v>33.74354</v>
       </c>
       <c r="I11">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="J11">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>24.944012</v>
       </c>
       <c r="O11">
-        <v>0.2223908915496236</v>
+        <v>0.1317597634642934</v>
       </c>
       <c r="P11">
-        <v>0.2223908915496236</v>
+        <v>0.1317597634642934</v>
       </c>
       <c r="Q11">
-        <v>88.10983613520489</v>
+        <v>93.52214074249777</v>
       </c>
       <c r="R11">
-        <v>792.988525216844</v>
+        <v>841.6992666824799</v>
       </c>
       <c r="S11">
-        <v>0.04468988735003569</v>
+        <v>0.02123045277549029</v>
       </c>
       <c r="T11">
-        <v>0.04468988735003569</v>
+        <v>0.02123045277549029</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.59691233333333</v>
+        <v>11.24784666666667</v>
       </c>
       <c r="H12">
-        <v>31.790737</v>
+        <v>33.74354</v>
       </c>
       <c r="I12">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="J12">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.700542666666666</v>
+        <v>6.744108333333334</v>
       </c>
       <c r="N12">
-        <v>17.101628</v>
+        <v>20.232325</v>
       </c>
       <c r="O12">
-        <v>0.1524713144729888</v>
+        <v>0.1068715953284784</v>
       </c>
       <c r="P12">
-        <v>0.1524713144729888</v>
+        <v>0.1068715953284784</v>
       </c>
       <c r="Q12">
-        <v>60.40815089109289</v>
+        <v>75.85669643672223</v>
       </c>
       <c r="R12">
-        <v>543.673358019836</v>
+        <v>682.7102679305</v>
       </c>
       <c r="S12">
-        <v>0.03063941072599773</v>
+        <v>0.01722022184927074</v>
       </c>
       <c r="T12">
-        <v>0.03063941072599773</v>
+        <v>0.01722022184927074</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.59691233333333</v>
+        <v>11.24784666666667</v>
       </c>
       <c r="H13">
-        <v>31.790737</v>
+        <v>33.74354</v>
       </c>
       <c r="I13">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="J13">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.02865466666666667</v>
+        <v>0.05406333333333333</v>
       </c>
       <c r="N13">
-        <v>0.085964</v>
+        <v>0.16219</v>
       </c>
       <c r="O13">
-        <v>0.0007664208388438814</v>
+        <v>0.0008567232903942534</v>
       </c>
       <c r="P13">
-        <v>0.0007664208388438814</v>
+        <v>0.0008567232903942534</v>
       </c>
       <c r="Q13">
-        <v>0.3036509906075556</v>
+        <v>0.6080960836222221</v>
       </c>
       <c r="R13">
-        <v>2.732858915468</v>
+        <v>5.4728647526</v>
       </c>
       <c r="S13">
-        <v>0.0001540137759779168</v>
+        <v>0.0001380438373609173</v>
       </c>
       <c r="T13">
-        <v>0.0001540137759779168</v>
+        <v>0.0001380438373609173</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.4888703333333333</v>
+        <v>0.1507006666666667</v>
       </c>
       <c r="H14">
-        <v>1.466611</v>
+        <v>0.452102</v>
       </c>
       <c r="I14">
-        <v>0.009270573592685365</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="J14">
-        <v>0.009270573592685367</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>23.34377233333333</v>
+        <v>47.991936</v>
       </c>
       <c r="N14">
-        <v>70.031317</v>
+        <v>143.975808</v>
       </c>
       <c r="O14">
-        <v>0.6243713731385437</v>
+        <v>0.7605119179168339</v>
       </c>
       <c r="P14">
-        <v>0.6243713731385437</v>
+        <v>0.7605119179168338</v>
       </c>
       <c r="Q14">
-        <v>11.41207776185411</v>
+        <v>7.232416749824001</v>
       </c>
       <c r="R14">
-        <v>102.708699856687</v>
+        <v>65.091750748416</v>
       </c>
       <c r="S14">
-        <v>0.005788280763846884</v>
+        <v>0.001641830277202255</v>
       </c>
       <c r="T14">
-        <v>0.005788280763846885</v>
+        <v>0.001641830277202255</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.4888703333333333</v>
+        <v>0.1507006666666667</v>
       </c>
       <c r="H15">
-        <v>1.466611</v>
+        <v>0.452102</v>
       </c>
       <c r="I15">
-        <v>0.009270573592685365</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="J15">
-        <v>0.009270573592685367</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>24.944012</v>
       </c>
       <c r="O15">
-        <v>0.2223908915496236</v>
+        <v>0.1317597634642934</v>
       </c>
       <c r="P15">
-        <v>0.2223908915496236</v>
+        <v>0.1317597634642934</v>
       </c>
       <c r="Q15">
-        <v>4.064795820370222</v>
+        <v>1.253026412580444</v>
       </c>
       <c r="R15">
-        <v>36.583162383332</v>
+        <v>11.277237713224</v>
       </c>
       <c r="S15">
-        <v>0.002061691126453696</v>
+        <v>0.000284449413449351</v>
       </c>
       <c r="T15">
-        <v>0.002061691126453696</v>
+        <v>0.0002844494134493509</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.4888703333333333</v>
+        <v>0.1507006666666667</v>
       </c>
       <c r="H16">
-        <v>1.466611</v>
+        <v>0.452102</v>
       </c>
       <c r="I16">
-        <v>0.009270573592685365</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="J16">
-        <v>0.009270573592685367</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.700542666666666</v>
+        <v>6.744108333333334</v>
       </c>
       <c r="N16">
-        <v>17.101628</v>
+        <v>20.232325</v>
       </c>
       <c r="O16">
-        <v>0.1524713144729888</v>
+        <v>0.1068715953284784</v>
       </c>
       <c r="P16">
-        <v>0.1524713144729888</v>
+        <v>0.1068715953284784</v>
       </c>
       <c r="Q16">
-        <v>2.786826193634222</v>
+        <v>1.016341621905556</v>
       </c>
       <c r="R16">
-        <v>25.081435742708</v>
+        <v>9.147074597150002</v>
       </c>
       <c r="S16">
-        <v>0.001413496541595316</v>
+        <v>0.0002307196203628607</v>
       </c>
       <c r="T16">
-        <v>0.001413496541595316</v>
+        <v>0.0002307196203628606</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.4888703333333333</v>
+        <v>0.1507006666666667</v>
       </c>
       <c r="H17">
-        <v>1.466611</v>
+        <v>0.452102</v>
       </c>
       <c r="I17">
-        <v>0.009270573592685365</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="J17">
-        <v>0.009270573592685367</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1485,28 +1485,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.02865466666666667</v>
+        <v>0.05406333333333333</v>
       </c>
       <c r="N17">
-        <v>0.085964</v>
+        <v>0.16219</v>
       </c>
       <c r="O17">
-        <v>0.0007664208388438814</v>
+        <v>0.0008567232903942534</v>
       </c>
       <c r="P17">
-        <v>0.0007664208388438814</v>
+        <v>0.0008567232903942534</v>
       </c>
       <c r="Q17">
-        <v>0.01400841644488889</v>
+        <v>0.008147380375555556</v>
       </c>
       <c r="R17">
-        <v>0.126075748004</v>
+        <v>0.07332642338000001</v>
       </c>
       <c r="S17">
-        <v>7.105160789469853E-06</v>
+        <v>1.849536087753255E-06</v>
       </c>
       <c r="T17">
-        <v>7.105160789469854E-06</v>
+        <v>1.849536087753254E-06</v>
       </c>
     </row>
   </sheetData>
